--- a/IngestAt/ingestat.xlsx
+++ b/IngestAt/ingestat.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\IngestAt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31A045C-57F4-4C1F-8C2C-2B2362D2FBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B1A4E-028A-42AA-9E16-585EC81E68DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,15 +51,21 @@
       <charset val="162"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,14 +73,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A63"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,320 +389,63 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2">
-        <v>50924</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>50917</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>52357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>50915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>50920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>50928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>50930</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>50914</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>50929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>52361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>59495</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>4167851</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>4167852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>4169883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4167589</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4169886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4167850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4169762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>4169756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4169760</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4169769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4168352</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>52360</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>57290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>59500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>60838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>60837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>60842</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>60844</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>50918</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>57288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>60840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>60841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>57287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>50931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>52358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>52352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>57289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>50916</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>50926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>50912</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>52354</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>59494</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>50925</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>52359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>50923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>50927</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>52355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>52353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>50913</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>57285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>57286</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>50922</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>50921</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>59498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>52356</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>59497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>59499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>59501</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>59502</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>60843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>60836</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>60839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>60835</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>62195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>62194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>62199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>62197</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>62198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>62196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>59496</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>62201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62200</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IngestAt/ingestat.xlsx
+++ b/IngestAt/ingestat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\IngestAt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B1A4E-028A-42AA-9E16-585EC81E68DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E298E-94FA-4199-8E1A-D543557B8BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,29 +43,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -73,31 +60,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,74 +347,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>4167851</v>
+      <c r="A1" s="1">
+        <v>62091</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>4167852</v>
+      <c r="A2" s="1">
+        <v>62080</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>4169883</v>
+      <c r="A3" s="1">
+        <v>62081</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>4167589</v>
+      <c r="A4" s="1">
+        <v>62087</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4169886</v>
+      <c r="A5" s="1">
+        <v>62082</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4167850</v>
+      <c r="A6" s="1">
+        <v>62089</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4169762</v>
+      <c r="A7" s="1">
+        <v>62079</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>4169756</v>
+      <c r="A8" s="1">
+        <v>62083</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>4169760</v>
+      <c r="A9" s="1">
+        <v>62088</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>4169769</v>
+      <c r="A10" s="1">
+        <v>62090</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>4168352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A11" s="1">
+        <v>62085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>62086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>62084</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IngestAt/ingestat.xlsx
+++ b/IngestAt/ingestat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\IngestAt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3E298E-94FA-4199-8E1A-D543557B8BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C780C5-ACC0-41E9-B0AB-6F2EFB9B0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,67 +360,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>62091</v>
+        <v>16678</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>62080</v>
+        <v>16695</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>62081</v>
+        <v>16680</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>62087</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>62082</v>
+        <v>16710</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>62089</v>
+        <v>16676</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>62079</v>
+        <v>16716</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>62083</v>
+        <v>16715</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>62088</v>
+        <v>16719</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>62090</v>
+        <v>16689</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>62085</v>
+        <v>16701</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>62086</v>
+        <v>16681</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>62084</v>
+        <v>16684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>16699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>16673</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>16682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>16721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>16693</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>16688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>16717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>16720</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>16694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>16711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>16712</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>16686</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>16696</v>
       </c>
     </row>
   </sheetData>

--- a/IngestAt/ingestat.xlsx
+++ b/IngestAt/ingestat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\IngestAt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C780C5-ACC0-41E9-B0AB-6F2EFB9B0735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D743417-233B-4C66-8C08-6527CE0015EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,157 +360,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>16678</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>16695</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>16680</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>16687</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>16710</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>16676</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>16716</v>
+        <v>8779</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>16715</v>
+        <v>8780</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>16719</v>
+        <v>8917</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>16689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>16701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>16681</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>16684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>16699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>16673</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>16677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16707</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>16714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>16705</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>16682</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>16721</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>16693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>16688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>16717</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>16720</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>16694</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>16711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>16712</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>16686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>16696</v>
+        <v>8919</v>
       </c>
     </row>
   </sheetData>

--- a/IngestAt/ingestat.xlsx
+++ b/IngestAt/ingestat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\playground\IngestAt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D743417-233B-4C66-8C08-6527CE0015EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFFA57-45E8-406F-BFAA-E3252DD3E99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -360,52 +360,1737 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
-        <v>2833</v>
+        <v>54164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>4084</v>
+        <v>54231</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>4093</v>
+        <v>54237</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>4095</v>
+        <v>54289</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4096</v>
+        <v>54290</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6166</v>
+        <v>54297</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8779</v>
+        <v>54299</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8780</v>
+        <v>54300</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8917</v>
+        <v>54301</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8919</v>
+        <v>54303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>54539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>54540</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>54543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>54545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>54553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>54558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>54559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>54564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>54565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>54566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>54568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>56714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>56788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>56797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>56801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>57299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>57307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>57309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>59455</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>59456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>59772</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>59773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>59774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>59775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>59778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>59779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>59780</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>59781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>59782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>59783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>59784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>59785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>59786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>60073</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>60076</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>60077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>60080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>60081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>60549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>60558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>60561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>60569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>60570</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>60571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>60572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>60573</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>60579</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>60583</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60584</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61057</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>61060</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>61061</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>61062</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>61063</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>61064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>61065</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>61066</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>61069</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>61072</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>61074</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>61075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>61077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>61080</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>61081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>61082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>61083</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>61084</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>61085</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>61086</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>61088</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>61089</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>61091</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>61093</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>61094</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>61096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>61097</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>61098</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>61099</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>61101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>61109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>61110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>61113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>61114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>61115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>61116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>61271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>61461</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>61464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>61466</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>61468</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>61471</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>61472</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>61473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>61475</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>61476</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>61477</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>61481</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>61482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>61483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>61484</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>61485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>61487</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>61488</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>61489</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>61490</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>61491</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>61492</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>61494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>61495</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>61502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>61504</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>61508</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>61512</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>61513</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>61514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>61517</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>61616</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>61617</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>61618</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>61619</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>61622</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>61623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>61731</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>62323</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>62324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>62325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>62328</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>62329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>62330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>63031</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>63036</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>63037</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>63042</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>63043</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>63045</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>63046</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>63049</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>63056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>63058</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>63059</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>63060</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>63068</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>63077</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>63089</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>63099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>63100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>63101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>63103</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>63104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>63940</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>63949</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>63950</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>63951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>63952</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>63953</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>63954</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>63956</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>63957</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>63958</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>63960</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>63962</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>63963</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>63964</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>63965</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>63966</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>63967</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>63970</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>63971</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>63972</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>63974</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>63982</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>63983</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>63984</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>63985</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>63997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>63999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>64003</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>64221</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>64366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>64371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>64372</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>64377</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>64378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>64379</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>64380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>64381</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>64425</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>64426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>64432</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>64621</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>64690</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>64691</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>64692</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>64695</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>64697</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>64698</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>64700</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>64701</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>64702</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>64728</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>64729</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>64730</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>64731</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>64732</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>64733</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>64734</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>64735</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>64739</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>64740</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>64745</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>64769</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>64770</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>64771</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>64772</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>64773</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>64774</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>64775</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>64776</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>64777</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>64778</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>64779</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>64780</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>64781</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>64782</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>64783</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>64784</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>64785</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>64786</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>64788</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>64789</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>64790</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>64791</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>64792</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>64793</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>64794</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>64795</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>64796</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>64797</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>64798</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>64987</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>64998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>64999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>65003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>65004</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>65009</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>65010</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>65011</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>65014</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>65069</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>65074</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>65075</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>65076</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>65077</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>4165141</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>4165142</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>4165143</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>4165144</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>4165145</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>4165146</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>4165147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>4165150</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>4165151</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>4165153</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1">
+        <v>4165162</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1">
+        <v>4165163</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1">
+        <v>4165164</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1">
+        <v>4165175</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1">
+        <v>4165386</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>4165387</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1">
+        <v>4165927</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1">
+        <v>4165928</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>4165929</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>4165930</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>4165932</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>4165933</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>4165935</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>4165937</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>4165938</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>4165939</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>4165940</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>4165942</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>4165943</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>4165944</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>4165946</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>4165949</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
+        <v>4165950</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1">
+        <v>4165951</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1">
+        <v>4166423</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1">
+        <v>4166424</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1">
+        <v>4166425</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1">
+        <v>4166426</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1">
+        <v>4166427</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1">
+        <v>4166428</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1">
+        <v>4166429</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1">
+        <v>4166430</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1">
+        <v>4166431</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1">
+        <v>4166433</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1">
+        <v>4166434</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1">
+        <v>4166435</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1">
+        <v>4166436</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1">
+        <v>4166437</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1">
+        <v>4166440</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1">
+        <v>4166444</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1">
+        <v>4166445</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1">
+        <v>4166446</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1">
+        <v>4166447</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1">
+        <v>4166448</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1">
+        <v>4166491</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1">
+        <v>4166492</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1">
+        <v>4166493</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1">
+        <v>4166494</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1">
+        <v>4166495</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1">
+        <v>4166581</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1">
+        <v>4166789</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1">
+        <v>4166790</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1">
+        <v>4166791</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1">
+        <v>4166792</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1">
+        <v>4166793</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1">
+        <v>4166794</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1">
+        <v>4166795</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1">
+        <v>4166796</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1">
+        <v>4166797</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1">
+        <v>4166798</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1">
+        <v>4166799</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1">
+        <v>4166800</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <v>4166981</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <v>4166982</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <v>4166985</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <v>4166986</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <v>4166987</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <v>4166988</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <v>4166989</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <v>4167033</v>
       </c>
     </row>
   </sheetData>
